--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F11EC8-A478-024B-83A0-76BFF47C20CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C0EFE-BF32-F94E-94A1-40DD1E1FB8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19440" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="address tool" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7400" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7399" uniqueCount="255">
   <si>
     <t>https://valdostaconcrete.com/wp-admin/</t>
   </si>
@@ -391,9 +391,6 @@
   </si>
   <si>
     <t>might have citations - not sure</t>
-  </si>
-  <si>
-    <t>http://augustaplumber.net/</t>
   </si>
   <si>
     <t>CITATIONS STATUS</t>
@@ -823,6 +820,15 @@
   </si>
   <si>
     <t>Brian Shingleton</t>
+  </si>
+  <si>
+    <t>https://chatgpt.com/c/68a61c1e-f518-8320-b37c-9df112a391f1</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>fake number (non-existent) phase 1 number - not sure if it could be a real person - should change it later</t>
   </si>
 </sst>
 </file>
@@ -1545,8 +1551,8 @@
   <dimension ref="A1:AS500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1593,7 +1599,13 @@
     <col min="44" max="44" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="D1" s="21"/>
       <c r="E1" s="22" t="s">
         <v>61</v>
@@ -1673,7 +1685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D2" s="8"/>
       <c r="E2" s="22" t="s">
         <v>61</v>
@@ -1689,7 +1701,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="22"/>
       <c r="P2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q2" s="22" t="s">
         <v>61</v>
@@ -1743,7 +1755,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D3" s="8"/>
       <c r="E3" s="22" t="s">
         <v>61</v>
@@ -1759,7 +1771,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="22"/>
       <c r="P3" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q3" s="22" t="s">
         <v>61</v>
@@ -1813,13 +1825,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D4" s="8"/>
       <c r="E4" s="22"/>
       <c r="F4" s="24"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="J4" s="8"/>
       <c r="K4" s="22"/>
       <c r="L4" s="8"/>
@@ -1827,7 +1840,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="22"/>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>61</v>
@@ -1879,7 +1892,7 @@
       <c r="AN4" s="8"/>
       <c r="AO4" s="22"/>
     </row>
-    <row r="5" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D5" s="8"/>
       <c r="E5" s="22"/>
       <c r="F5" s="24"/>
@@ -1943,7 +1956,7 @@
       <c r="AN5" s="8"/>
       <c r="AO5" s="22"/>
     </row>
-    <row r="6" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D6" s="8"/>
       <c r="E6" s="22"/>
       <c r="F6" s="24"/>
@@ -2006,31 +2019,31 @@
       <c r="AN6" s="8"/>
       <c r="AO6" s="22"/>
     </row>
-    <row r="7" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D7" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="24"/>
       <c r="G7" s="22"/>
       <c r="H7" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M7" s="22"/>
       <c r="N7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O7" s="22"/>
       <c r="P7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="22" t="s">
         <v>61</v>
@@ -2040,7 +2053,7 @@
         <v>61</v>
       </c>
       <c r="T7" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U7" s="22" t="s">
         <v>61</v>
@@ -2050,59 +2063,59 @@
         <v>61</v>
       </c>
       <c r="X7" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="Z7" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AB7" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AD7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AE7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AI7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AK7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN7" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AO7" s="22"/>
     </row>
-    <row r="8" spans="4:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D8" s="26"/>
       <c r="E8" s="22" t="s">
         <v>61</v>
@@ -2170,7 +2183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D9" s="8"/>
       <c r="E9" s="22" t="s">
         <v>61</v>
@@ -2238,7 +2251,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D10" s="8"/>
       <c r="E10" s="22" t="s">
         <v>61</v>
@@ -2247,9 +2260,7 @@
       <c r="G10" s="22"/>
       <c r="H10" s="8"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="J10" s="8"/>
       <c r="K10" s="22"/>
       <c r="L10" s="8"/>
       <c r="M10" s="22"/>
@@ -2308,16 +2319,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D11" s="8"/>
       <c r="E11" s="22"/>
       <c r="F11" s="24"/>
       <c r="G11" s="22"/>
       <c r="H11" s="8"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="8" t="s">
-        <v>118</v>
-      </c>
+      <c r="J11" s="8"/>
       <c r="K11" s="22"/>
       <c r="L11" s="8"/>
       <c r="M11" s="22"/>
@@ -2374,16 +2383,14 @@
       <c r="AN11" s="8"/>
       <c r="AO11" s="22"/>
     </row>
-    <row r="12" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D12" s="8"/>
       <c r="E12" s="22"/>
       <c r="F12" s="24"/>
       <c r="G12" s="22"/>
       <c r="H12" s="8"/>
       <c r="I12" s="22"/>
-      <c r="J12" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="J12" s="8"/>
       <c r="K12" s="22"/>
       <c r="L12" s="8"/>
       <c r="M12" s="22"/>
@@ -2440,7 +2447,7 @@
       <c r="AN12" s="8"/>
       <c r="AO12" s="22"/>
     </row>
-    <row r="13" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D13" s="8"/>
       <c r="E13" s="22" t="s">
         <v>61</v>
@@ -2449,9 +2456,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="8"/>
       <c r="I13" s="22"/>
-      <c r="J13" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="22"/>
       <c r="L13" s="8" t="s">
         <v>0</v>
@@ -2540,7 +2545,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="4:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D14" s="8"/>
       <c r="E14" s="22" t="s">
         <v>61</v>
@@ -2638,7 +2643,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="4:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D15" s="21"/>
       <c r="E15" s="22" t="s">
         <v>61</v>
@@ -2650,7 +2655,7 @@
         <v>61</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>61</v>
@@ -2752,7 +2757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="4:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D16" s="26"/>
       <c r="E16" s="22" t="s">
         <v>61</v>
@@ -3136,7 +3141,7 @@
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="8" t="s">
@@ -3271,7 +3276,7 @@
         <v>61</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U22" s="22" t="s">
         <v>61</v>
@@ -3358,7 +3363,7 @@
       </c>
       <c r="K23" s="22"/>
       <c r="L23" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M23" s="22"/>
       <c r="N23" s="8" t="s">
@@ -3378,7 +3383,7 @@
         <v>61</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="U23" s="22" t="s">
         <v>61</v>
@@ -3465,7 +3470,7 @@
       </c>
       <c r="K24" s="22"/>
       <c r="L24" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M24" s="22"/>
       <c r="N24" s="8" t="s">
@@ -3485,7 +3490,7 @@
         <v>61</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U24" s="22" t="s">
         <v>61</v>
@@ -3572,7 +3577,7 @@
       </c>
       <c r="K25" s="22"/>
       <c r="L25" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M25" s="22"/>
       <c r="N25" s="8" t="s">
@@ -3592,7 +3597,7 @@
         <v>61</v>
       </c>
       <c r="T25" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="U25" s="22" t="s">
         <v>61</v>
@@ -3679,15 +3684,15 @@
       </c>
       <c r="K26" s="22"/>
       <c r="L26" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="22" t="s">
         <v>61</v>
@@ -3697,7 +3702,7 @@
         <v>61</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U26" s="22" t="s">
         <v>61</v>
@@ -3784,17 +3789,17 @@
       </c>
       <c r="K27" s="22"/>
       <c r="L27" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M27" s="22" t="s">
         <v>61</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O27" s="22"/>
       <c r="P27" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q27" s="22" t="s">
         <v>61</v>
@@ -3804,7 +3809,7 @@
         <v>61</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U27" s="22" t="s">
         <v>61</v>
@@ -3830,19 +3835,19 @@
         <v>61</v>
       </c>
       <c r="AD27" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE27" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF27" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG27" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH27" s="24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AI27" s="22" t="s">
         <v>61</v>
@@ -3891,15 +3896,15 @@
       </c>
       <c r="K28" s="22"/>
       <c r="L28" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O28" s="22"/>
       <c r="P28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q28" s="22" t="s">
         <v>61</v>
@@ -3909,7 +3914,7 @@
         <v>61</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U28" s="22" t="s">
         <v>61</v>
@@ -3933,37 +3938,37 @@
         <v>61</v>
       </c>
       <c r="AD28" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE28" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF28" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG28" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH28" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ28" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AI28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ28" s="8" t="s">
+      <c r="AK28" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL28" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="AK28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL28" s="20" t="s">
-        <v>217</v>
-      </c>
       <c r="AM28" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN28" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AO28" s="22" t="s">
         <v>61</v>
@@ -3972,7 +3977,7 @@
         <v>59</v>
       </c>
       <c r="AS28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
@@ -3989,15 +3994,15 @@
       <c r="J29" s="8"/>
       <c r="K29" s="22"/>
       <c r="L29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="M29" s="22"/>
       <c r="N29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="O29" s="22"/>
       <c r="P29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="22" t="s">
         <v>61</v>
@@ -4007,7 +4012,7 @@
         <v>61</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="U29" s="22" t="s">
         <v>61</v>
@@ -4031,37 +4036,37 @@
         <v>61</v>
       </c>
       <c r="AD29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AE29" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AG29" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AI29" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AK29" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AM29" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN29" s="8" t="s">
-        <v>124</v>
+        <v>254</v>
       </c>
       <c r="AO29" s="22" t="s">
         <v>61</v>
@@ -4070,7 +4075,7 @@
         <v>63</v>
       </c>
       <c r="AS29" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.2">
@@ -4087,15 +4092,15 @@
       <c r="J30" s="8"/>
       <c r="K30" s="22"/>
       <c r="L30" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M30" s="22"/>
       <c r="N30" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O30" s="22"/>
       <c r="P30" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="22" t="s">
         <v>61</v>
@@ -4105,7 +4110,7 @@
         <v>61</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U30" s="22" t="s">
         <v>61</v>
@@ -4127,37 +4132,37 @@
         <v>61</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF30" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH30" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ30" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AG30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH30" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ30" s="46" t="s">
+      <c r="AK30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL30" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="AK30" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL30" s="46" t="s">
-        <v>199</v>
-      </c>
       <c r="AM30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN30" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AO30" s="22" t="s">
         <v>61</v>
@@ -4166,7 +4171,7 @@
         <v>109</v>
       </c>
       <c r="AS30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.2">
@@ -4185,15 +4190,15 @@
       </c>
       <c r="K31" s="22"/>
       <c r="L31" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M31" s="22"/>
       <c r="N31" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O31" s="22"/>
       <c r="P31" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="22" t="s">
         <v>61</v>
@@ -4203,7 +4208,7 @@
         <v>61</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="U31" s="22" t="s">
         <v>61</v>
@@ -4225,37 +4230,37 @@
         <v>61</v>
       </c>
       <c r="AD31" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE31" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF31" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH31" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ31" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="AG31" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH31" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI31" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ31" s="46" t="s">
+      <c r="AK31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL31" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="AK31" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL31" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="AM31" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN31" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AO31" s="22" t="s">
         <v>61</v>
@@ -4264,7 +4269,7 @@
         <v>110</v>
       </c>
       <c r="AS31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.2">
@@ -4281,17 +4286,17 @@
       <c r="J32" s="8"/>
       <c r="K32" s="22"/>
       <c r="L32" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="N32" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O32" s="22"/>
       <c r="P32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q32" s="22" t="s">
         <v>61</v>
@@ -4321,37 +4326,37 @@
         <v>61</v>
       </c>
       <c r="AD32" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AE32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF32" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AI32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ32" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AM32" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN32" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AO32" s="22" t="s">
         <v>61</v>
@@ -4360,7 +4365,7 @@
         <v>111</v>
       </c>
       <c r="AS32" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="4:45" x14ac:dyDescent="0.2">
@@ -4377,17 +4382,17 @@
       <c r="J33" s="8"/>
       <c r="K33" s="22"/>
       <c r="L33" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O33" s="22"/>
       <c r="P33" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q33" s="22" t="s">
         <v>61</v>
@@ -4417,37 +4422,37 @@
         <v>61</v>
       </c>
       <c r="AD33" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AE33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF33" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AI33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ33" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AK33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL33" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AM33" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN33" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AO33" s="22" t="s">
         <v>61</v>
@@ -4456,7 +4461,7 @@
         <v>112</v>
       </c>
       <c r="AS33" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="4:45" x14ac:dyDescent="0.2">
@@ -4667,19 +4672,19 @@
       <c r="J36" s="8"/>
       <c r="K36" s="22"/>
       <c r="L36" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M36" s="22" t="s">
         <v>61</v>
       </c>
       <c r="N36" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O36" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="O36" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="Q36" s="22" t="s">
         <v>61</v>
@@ -4689,7 +4694,7 @@
         <v>61</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U36" s="22" t="s">
         <v>61</v>
@@ -4711,13 +4716,13 @@
         <v>61</v>
       </c>
       <c r="AD36" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE36" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF36" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG36" s="22" t="s">
         <v>61</v>
@@ -4764,15 +4769,15 @@
       <c r="J37" s="8"/>
       <c r="K37" s="22"/>
       <c r="L37" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O37" s="22"/>
       <c r="P37" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q37" s="22" t="s">
         <v>61</v>
@@ -4782,7 +4787,7 @@
         <v>61</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U37" s="22" t="s">
         <v>61</v>
@@ -4804,37 +4809,37 @@
         <v>61</v>
       </c>
       <c r="AD37" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AE37" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG37" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH37" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AI37" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ37" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK37" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL37" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AM37" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN37" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO37" s="22" t="s">
         <v>61</v>
@@ -4845,7 +4850,7 @@
     </row>
     <row r="38" spans="4:45" x14ac:dyDescent="0.2">
       <c r="D38" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="22" t="s">
         <v>61</v>
@@ -4857,19 +4862,19 @@
       <c r="J38" s="8"/>
       <c r="K38" s="22"/>
       <c r="L38" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M38" s="22" t="s">
         <v>61</v>
       </c>
       <c r="N38" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O38" s="22" t="s">
         <v>61</v>
       </c>
       <c r="P38" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q38" s="22" t="s">
         <v>61</v>
@@ -4899,43 +4904,43 @@
         <v>61</v>
       </c>
       <c r="AD38" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE38" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF38" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG38" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH38" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="AG38" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH38" s="27" t="s">
+      <c r="AI38" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ38" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="AI38" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ38" s="27" t="s">
+      <c r="AK38" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL38" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="AK38" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL38" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="AM38" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN38" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO38" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AR38" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="4:45" x14ac:dyDescent="0.2">
@@ -5008,7 +5013,7 @@
     </row>
     <row r="40" spans="4:45" x14ac:dyDescent="0.2">
       <c r="D40" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>61</v>
@@ -5031,7 +5036,7 @@
         <v>61</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U40" s="22" t="s">
         <v>61</v>
@@ -5077,7 +5082,7 @@
         <v>61</v>
       </c>
       <c r="AR40" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="4:45" x14ac:dyDescent="0.2">
@@ -5216,7 +5221,7 @@
     </row>
     <row r="43" spans="4:45" x14ac:dyDescent="0.2">
       <c r="D43" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="22" t="s">
         <v>61</v>
@@ -5228,15 +5233,15 @@
       <c r="J43" s="8"/>
       <c r="K43" s="22"/>
       <c r="L43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M43" s="22"/>
       <c r="N43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="22"/>
       <c r="P43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q43" s="22" t="s">
         <v>61</v>
@@ -5246,7 +5251,7 @@
         <v>61</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U43" s="22" t="s">
         <v>61</v>
@@ -5268,46 +5273,46 @@
         <v>61</v>
       </c>
       <c r="AD43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AE43" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG43" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AI43" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AK43" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AM43" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN43" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO43" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AR43" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AS43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="4:45" x14ac:dyDescent="0.2">
@@ -5448,7 +5453,7 @@
     </row>
     <row r="46" spans="4:45" x14ac:dyDescent="0.2">
       <c r="D46" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="22" t="s">
         <v>61</v>
@@ -5460,15 +5465,15 @@
       <c r="J46" s="8"/>
       <c r="K46" s="22"/>
       <c r="L46" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M46" s="22"/>
       <c r="N46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O46" s="22"/>
       <c r="P46" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q46" s="22" t="s">
         <v>61</v>
@@ -5478,7 +5483,7 @@
         <v>61</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U46" s="22" t="s">
         <v>61</v>
@@ -5500,51 +5505,51 @@
         <v>61</v>
       </c>
       <c r="AD46" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE46" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF46" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG46" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH46" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI46" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ46" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="AG46" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH46" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI46" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ46" s="8" t="s">
+      <c r="AK46" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL46" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="AK46" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL46" s="8" t="s">
-        <v>232</v>
-      </c>
       <c r="AM46" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN46" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AO46" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AR46" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS46" t="s">
         <v>139</v>
-      </c>
-      <c r="AS46" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="47" spans="4:45" x14ac:dyDescent="0.2">
       <c r="D47" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="22" t="s">
         <v>61</v>
@@ -5612,7 +5617,7 @@
         <v>61</v>
       </c>
       <c r="AR47" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="4:45" x14ac:dyDescent="0.2">
@@ -5685,7 +5690,7 @@
     </row>
     <row r="49" spans="4:44" x14ac:dyDescent="0.2">
       <c r="D49" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E49" s="22" t="s">
         <v>61</v>
@@ -5697,15 +5702,15 @@
       <c r="J49" s="8"/>
       <c r="K49" s="22"/>
       <c r="L49" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M49" s="22"/>
       <c r="N49" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O49" s="22"/>
       <c r="P49" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q49" s="22" t="s">
         <v>61</v>
@@ -5735,48 +5740,48 @@
         <v>61</v>
       </c>
       <c r="AD49" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE49" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF49" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG49" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH49" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AI49" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ49" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AK49" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL49" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AM49" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN49" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AO49" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AR49" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="4:44" x14ac:dyDescent="0.2">
       <c r="D50" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="8"/>
@@ -5786,15 +5791,15 @@
       <c r="J50" s="8"/>
       <c r="K50" s="22"/>
       <c r="L50" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M50" s="22"/>
       <c r="N50" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O50" s="22"/>
       <c r="P50" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q50" s="22" t="s">
         <v>61</v>
@@ -5824,46 +5829,46 @@
         <v>61</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AE50" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF50" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG50" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH50" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AI50" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ50" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AK50" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL50" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM50" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN50" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AO50" s="22"/>
       <c r="AR50" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="4:44" x14ac:dyDescent="0.2">
       <c r="D51" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E51" s="22" t="s">
         <v>61</v>
@@ -5875,15 +5880,15 @@
       <c r="J51" s="8"/>
       <c r="K51" s="22"/>
       <c r="L51" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M51" s="22"/>
       <c r="N51" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O51" s="22"/>
       <c r="P51" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q51" s="22" t="s">
         <v>61</v>
@@ -5913,48 +5918,48 @@
         <v>61</v>
       </c>
       <c r="AD51" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AE51" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF51" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG51" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH51" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI51" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ51" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK51" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL51" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AM51" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN51" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AO51" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AR51" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="4:44" x14ac:dyDescent="0.2">
       <c r="D52" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E52" s="22" t="s">
         <v>61</v>
@@ -6040,12 +6045,12 @@
         <v>61</v>
       </c>
       <c r="AR52" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="4:44" x14ac:dyDescent="0.2">
       <c r="D53" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>61</v>
@@ -6057,15 +6062,15 @@
       <c r="J53" s="8"/>
       <c r="K53" s="22"/>
       <c r="L53" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M53" s="22"/>
       <c r="N53" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O53" s="22"/>
       <c r="P53" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q53" s="22" t="s">
         <v>61</v>
@@ -6095,37 +6100,37 @@
         <v>61</v>
       </c>
       <c r="AD53" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AE53" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AF53" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG53" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AH53" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AI53" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AJ53" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AK53" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AL53" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AM53" s="22" t="s">
         <v>61</v>
       </c>
       <c r="AN53" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO53" s="22" t="s">
         <v>61</v>
@@ -36575,12 +36580,12 @@
     <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E3" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82C0EFE-BF32-F94E-94A1-40DD1E1FB8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9CE810-39BD-E94E-8008-CDCF513CCBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
   </bookViews>
@@ -1550,9 +1550,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D627A6D-AF9C-AA4F-87F6-411900F15E79}">
   <dimension ref="A1:AS500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49782A6-7B1D-EC4E-83A8-823017F86C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E3BCB1-2827-BE4B-802D-F21FF7E168A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7417" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7417" uniqueCount="280">
   <si>
     <t>https://valdostaconcrete.com/wp-admin/</t>
   </si>
@@ -913,6 +913,9 @@
   <si>
     <t>SOCIAL PROFILES STATUS</t>
   </si>
+  <si>
+    <t>sitespren_base (domain)</t>
+  </si>
 </sst>
 </file>
 
@@ -1633,9 +1636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D627A6D-AF9C-AA4F-87F6-411900F15E79}">
   <dimension ref="A1:AW501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3215,8 +3218,8 @@
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>45</v>
+      <c r="D21" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>61</v>
@@ -3316,7 +3319,7 @@
         <v>61</v>
       </c>
       <c r="AR21" s="2" t="s">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AS21" s="8" t="s">
         <v>256</v>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E3BCB1-2827-BE4B-802D-F21FF7E168A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60520F-8839-554D-863C-AAF8F6CC91F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
   </bookViews>
@@ -1636,9 +1636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D627A6D-AF9C-AA4F-87F6-411900F15E79}">
   <dimension ref="A1:AW501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="AT29" sqref="AT29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F60520F-8839-554D-863C-AAF8F6CC91F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C5EAD-E079-8A42-A864-A0D0FE3C34B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
   </bookViews>
@@ -1638,7 +1638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AT29" sqref="AT29"/>
+      <selection pane="bottomLeft" activeCell="AT28" sqref="AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886C5EAD-E079-8A42-A864-A0D0FE3C34B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5B77C9-6A7F-3C4E-A09C-0D98D8084CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7417" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7420" uniqueCount="283">
   <si>
     <t>https://valdostaconcrete.com/wp-admin/</t>
   </si>
@@ -916,6 +916,15 @@
   <si>
     <t>sitespren_base (domain)</t>
   </si>
+  <si>
+    <t>annarborpest.net</t>
+  </si>
+  <si>
+    <t>new prospective domains:</t>
+  </si>
+  <si>
+    <t>annarborpestcontrol.net</t>
+  </si>
 </sst>
 </file>
 
@@ -1637,8 +1646,8 @@
   <dimension ref="A1:AW501"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AT28" sqref="AT28"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="AV42" sqref="AV42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5196,6 +5205,9 @@
         <v>61</v>
       </c>
       <c r="AS40" s="8"/>
+      <c r="AV40" s="13" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="41" spans="4:49" x14ac:dyDescent="0.2">
       <c r="D41" s="9" t="s">
@@ -5271,6 +5283,9 @@
         <v>125</v>
       </c>
       <c r="AS41" s="8"/>
+      <c r="AV41" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="42" spans="4:49" x14ac:dyDescent="0.2">
       <c r="D42" s="8"/>
@@ -5337,6 +5352,9 @@
       <c r="AN42" s="8"/>
       <c r="AO42" s="16" t="s">
         <v>61</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="4:49" x14ac:dyDescent="0.2">

--- a/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/SDDX - Ratheon - Transposed Citation Builder System 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/SDDX - Citation Buy Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5B77C9-6A7F-3C4E-A09C-0D98D8084CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E88721-CFCB-B04A-B335-E12DABEE3323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{6CF00F42-C6A0-AB43-B6F9-C457A3BC84FE}"/>
   </bookViews>
@@ -1645,9 +1645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D627A6D-AF9C-AA4F-87F6-411900F15E79}">
   <dimension ref="A1:AW501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="AV42" sqref="AV42"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
